--- a/Results/DataAnalysis.xlsx
+++ b/Results/DataAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Dropbox\CCS\Courses S1\User Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isais\Documents\MSc-yr2\User Models\group-project-team-studysmart\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC2AFE9-FDE6-4A20-ACD5-5D59AB784271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AC627-CBD7-4AFC-ADCF-4CAE2C3BC7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8000EDD-2D1E-4D25-ABEF-D58E61F2AA6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Order</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>C&gt;B</t>
+  </si>
+  <si>
+    <t>85/150</t>
+  </si>
+  <si>
+    <t>88/150</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>13/16</t>
+  </si>
+  <si>
+    <t>107/150</t>
+  </si>
+  <si>
+    <t>123/150</t>
+  </si>
+  <si>
+    <t>18/22</t>
   </si>
 </sst>
 </file>
@@ -476,20 +500,21 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -620,29 +645,65 @@
       <c r="A6" s="2">
         <v>45</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1958.5551375057501</v>
+      </c>
+      <c r="H6" s="3">
+        <v>890.27096869029447</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3585.9610277952356</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1124.6920928137761</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>80</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1509.1564954545456</v>
+      </c>
+      <c r="H7" s="3">
+        <v>395.17837012022932</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3017.151354545455</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3092.3861706611574</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/DataAnalysis.xlsx
+++ b/Results/DataAnalysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Subject</t>
   </si>
@@ -52,10 +52,10 @@
     <t>121/150</t>
   </si>
   <si>
-    <t>4/19</t>
-  </si>
-  <si>
-    <t>30/37</t>
+    <t>14/17</t>
+  </si>
+  <si>
+    <t>16/21</t>
   </si>
   <si>
     <t>123/150</t>
@@ -64,10 +64,7 @@
     <t>140/150</t>
   </si>
   <si>
-    <t>6/19</t>
-  </si>
-  <si>
-    <t>40/44</t>
+    <t>22/22</t>
   </si>
   <si>
     <t>B&gt;C</t>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>21/22</t>
-  </si>
-  <si>
-    <t>22/22</t>
   </si>
   <si>
     <t>88/150</t>
@@ -1385,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5">
         <v>2353.1</v>
@@ -1405,19 +1399,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="D4" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="E4" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="4">
+      <c r="F4" t="s" s="4">
         <v>22</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>23</v>
       </c>
       <c r="G4" s="5">
         <v>1245.7969348</v>
@@ -1437,19 +1431,19 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="E5" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="E5" t="s" s="4">
-        <v>26</v>
-      </c>
       <c r="F5" t="s" s="4">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>1059.432486363480</v>
@@ -1472,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="D6" t="s" s="4">
+      <c r="F6" t="s" s="4">
         <v>29</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s" s="4">
-        <v>31</v>
       </c>
       <c r="G6" s="5">
         <v>1958.555137505750</v>
@@ -1501,19 +1495,19 @@
         <v>80</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="4">
         <v>15</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5">
         <v>1509.156495454550</v>
